--- a/symbols/symbols.xlsx
+++ b/symbols/symbols.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iontodirel\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ionto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895ABC1-3694-4DD9-8B9F-428E6C0616BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0B8BD4-69CB-4AF1-AD67-E94D8063B180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="5468" windowWidth="19185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2604" yWindow="1428" windowWidth="23040" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="577">
   <si>
     <t>table</t>
   </si>
@@ -2320,9 +2333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2360,7 +2373,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2466,7 +2479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2608,7 +2621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2618,23 +2631,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="6"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" style="3"/>
-    <col min="5" max="5" width="15.1328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.1328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="47.06640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3"/>
+    <col min="5" max="5" width="15.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="47.109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>237</v>
       </c>
@@ -2669,7 +2683,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2677,7 +2691,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2685,7 +2699,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2717,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2749,7 +2763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>4</v>
@@ -2782,7 +2796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2815,7 +2829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2848,7 +2862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2884,7 +2898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2917,7 +2931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2950,7 +2964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2983,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3016,7 +3030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3049,7 +3063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3082,7 +3096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3115,7 +3129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3148,7 +3162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3181,7 +3195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3214,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3247,7 +3261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3280,7 +3294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3313,7 +3327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3346,7 +3360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3379,7 +3393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3412,7 +3426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3445,7 +3459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3478,7 +3492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3511,7 +3525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3544,7 +3558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3580,7 +3594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3613,7 +3627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3649,7 +3663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3682,7 +3696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3715,7 +3729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3748,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3781,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3814,7 +3828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -3846,7 +3860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3879,7 +3893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3912,7 +3926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3945,7 +3959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3978,7 +3992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>43</v>
       </c>
@@ -4010,7 +4024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4043,7 +4057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4076,7 +4090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4109,7 +4123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4145,7 +4159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4178,7 +4192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4198,7 +4212,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4234,7 +4248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4267,7 +4281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4300,7 +4314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4333,7 +4347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4366,7 +4380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4399,7 +4413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4435,7 +4449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4471,7 +4485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4504,7 +4518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4537,7 +4551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4570,7 +4584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4603,7 +4617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4636,7 +4650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4669,7 +4683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4702,7 +4716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4738,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -4774,7 +4788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -4807,7 +4821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -4840,7 +4854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -4873,7 +4887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <f t="shared" ref="A70:A89" si="1">A69+1</f>
         <v>70</v>
@@ -4909,7 +4923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4942,7 +4956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4975,7 +4989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5008,7 +5022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5044,7 +5058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5080,7 +5094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5113,7 +5127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5146,7 +5160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5179,7 +5193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5212,7 +5226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5245,7 +5259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5278,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5311,7 +5325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5347,7 +5361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -5380,7 +5394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -5413,7 +5427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -5449,7 +5463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -5482,7 +5496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -5515,7 +5529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5548,7 +5562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>91</v>
       </c>
@@ -5580,7 +5594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>92</v>
       </c>
@@ -5606,7 +5620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>94</v>
       </c>
@@ -5632,7 +5646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -5654,10 +5668,17 @@
       <c r="H93" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I93" t="s">
+        <v>574</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+      <c r="K93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>3</v>
       </c>
@@ -5686,10 +5707,10 @@
         <v>1</v>
       </c>
       <c r="K94" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <f t="shared" ref="A95:A161" si="2">A94+1</f>
         <v>4</v>
@@ -5719,10 +5740,10 @@
         <v>1</v>
       </c>
       <c r="K95" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>6</v>
       </c>
@@ -5751,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="K96" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>7</v>
       </c>
@@ -5783,10 +5804,10 @@
         <v>1</v>
       </c>
       <c r="K97" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>8</v>
       </c>
@@ -5815,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="K98" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -5848,10 +5869,10 @@
         <v>1</v>
       </c>
       <c r="K99" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -5881,10 +5902,10 @@
         <v>1</v>
       </c>
       <c r="K100" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -5914,10 +5935,10 @@
         <v>1</v>
       </c>
       <c r="K101" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -5947,10 +5968,10 @@
         <v>1</v>
       </c>
       <c r="K102" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -5980,10 +6001,10 @@
         <v>1</v>
       </c>
       <c r="K103" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -6013,10 +6034,10 @@
         <v>1</v>
       </c>
       <c r="K104" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>16</v>
       </c>
@@ -6045,10 +6066,10 @@
         <v>1</v>
       </c>
       <c r="K105" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>24</v>
       </c>
@@ -6073,14 +6094,10 @@
       <c r="I106" t="s">
         <v>574</v>
       </c>
-      <c r="J106" s="3">
-        <v>1</v>
-      </c>
-      <c r="K106" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -6103,10 +6120,14 @@
       <c r="H107" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J107" s="3">
+        <v>2</v>
+      </c>
+      <c r="K107" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -6132,14 +6153,10 @@
       <c r="I108" t="s">
         <v>574</v>
       </c>
-      <c r="J108" s="3">
-        <v>2</v>
-      </c>
-      <c r="K108" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -6162,10 +6179,17 @@
       <c r="H109" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I109" t="s">
+        <v>574</v>
+      </c>
+      <c r="J109" s="3">
+        <v>2</v>
+      </c>
+      <c r="K109" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -6195,10 +6219,10 @@
         <v>2</v>
       </c>
       <c r="K110" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>30</v>
       </c>
@@ -6227,10 +6251,10 @@
         <v>2</v>
       </c>
       <c r="K111" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -6260,10 +6284,10 @@
         <v>2</v>
       </c>
       <c r="K112" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -6293,10 +6317,10 @@
         <v>2</v>
       </c>
       <c r="K113" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -6323,13 +6347,13 @@
         <v>574</v>
       </c>
       <c r="J114" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K114" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -6359,10 +6383,10 @@
         <v>3</v>
       </c>
       <c r="K115" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -6392,10 +6416,10 @@
         <v>3</v>
       </c>
       <c r="K116" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -6418,10 +6442,17 @@
       <c r="H117" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I117" t="s">
+        <v>574</v>
+      </c>
+      <c r="J117" s="3">
+        <v>3</v>
+      </c>
+      <c r="K117" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -6451,10 +6482,10 @@
         <v>3</v>
       </c>
       <c r="K118" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -6484,10 +6515,10 @@
         <v>3</v>
       </c>
       <c r="K119" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -6517,10 +6548,10 @@
         <v>3</v>
       </c>
       <c r="K120" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -6550,10 +6581,10 @@
         <v>3</v>
       </c>
       <c r="K121" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -6583,10 +6614,10 @@
         <v>3</v>
       </c>
       <c r="K122" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -6616,10 +6647,10 @@
         <v>3</v>
       </c>
       <c r="K123" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -6649,10 +6680,10 @@
         <v>3</v>
       </c>
       <c r="K124" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -6682,10 +6713,10 @@
         <v>3</v>
       </c>
       <c r="K125" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>46</v>
       </c>
@@ -6714,10 +6745,10 @@
         <v>3</v>
       </c>
       <c r="K126" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -6747,10 +6778,10 @@
         <v>3</v>
       </c>
       <c r="K127" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -6780,10 +6811,10 @@
         <v>3</v>
       </c>
       <c r="K128" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -6810,13 +6841,13 @@
         <v>574</v>
       </c>
       <c r="J129" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K129" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -6846,10 +6877,10 @@
         <v>4</v>
       </c>
       <c r="K130" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -6879,10 +6910,10 @@
         <v>4</v>
       </c>
       <c r="K131" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -6912,10 +6943,10 @@
         <v>4</v>
       </c>
       <c r="K132" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -6945,10 +6976,10 @@
         <v>4</v>
       </c>
       <c r="K133" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -6978,10 +7009,10 @@
         <v>4</v>
       </c>
       <c r="K134" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -7011,10 +7042,10 @@
         <v>4</v>
       </c>
       <c r="K135" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -7044,10 +7075,10 @@
         <v>4</v>
       </c>
       <c r="K136" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>59</v>
       </c>
@@ -7076,10 +7107,10 @@
         <v>4</v>
       </c>
       <c r="K137" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>62</v>
       </c>
@@ -7108,10 +7139,10 @@
         <v>4</v>
       </c>
       <c r="K138" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -7141,10 +7172,10 @@
         <v>4</v>
       </c>
       <c r="K139" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -7174,10 +7205,10 @@
         <v>4</v>
       </c>
       <c r="K140" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -7200,17 +7231,10 @@
       <c r="H141" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="I141" t="s">
-        <v>574</v>
-      </c>
-      <c r="J141" s="3">
-        <v>4</v>
-      </c>
-      <c r="K141" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>65</v>
       </c>
@@ -7235,7 +7259,7 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <f>A140+1</f>
         <v>65</v>
@@ -7258,10 +7282,17 @@
       <c r="H143" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I143" t="s">
+        <v>574</v>
+      </c>
+      <c r="J143" s="3">
+        <v>5</v>
+      </c>
+      <c r="K143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -7291,10 +7322,10 @@
         <v>5</v>
       </c>
       <c r="K144" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -7324,10 +7355,10 @@
         <v>5</v>
       </c>
       <c r="K145" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -7357,10 +7388,10 @@
         <v>5</v>
       </c>
       <c r="K146" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -7390,10 +7421,10 @@
         <v>5</v>
       </c>
       <c r="K147" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -7423,10 +7454,10 @@
         <v>5</v>
       </c>
       <c r="K148" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -7456,10 +7487,10 @@
         <v>5</v>
       </c>
       <c r="K149" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -7489,10 +7520,10 @@
         <v>5</v>
       </c>
       <c r="K150" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -7522,10 +7553,10 @@
         <v>5</v>
       </c>
       <c r="K151" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -7555,10 +7586,10 @@
         <v>5</v>
       </c>
       <c r="K152" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -7588,10 +7619,10 @@
         <v>5</v>
       </c>
       <c r="K153" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -7608,17 +7639,8 @@
       <c r="E154" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I154" t="s">
-        <v>574</v>
-      </c>
-      <c r="J154" s="3">
-        <v>5</v>
-      </c>
-      <c r="K154" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -7635,10 +7657,17 @@
       <c r="E155" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I155" t="s">
+        <v>574</v>
+      </c>
+      <c r="J155" s="3">
+        <v>5</v>
+      </c>
+      <c r="K155" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -7668,10 +7697,10 @@
         <v>5</v>
       </c>
       <c r="K156" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -7701,10 +7730,10 @@
         <v>5</v>
       </c>
       <c r="K157" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -7734,10 +7763,10 @@
         <v>5</v>
       </c>
       <c r="K158" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>82</v>
       </c>
@@ -7763,13 +7792,13 @@
         <v>574</v>
       </c>
       <c r="J159" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K159" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -7799,10 +7828,10 @@
         <v>6</v>
       </c>
       <c r="K160" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -7832,10 +7861,10 @@
         <v>6</v>
       </c>
       <c r="K161" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <f t="shared" ref="A162:A167" si="3">A161+1</f>
         <v>85</v>
@@ -7865,10 +7894,10 @@
         <v>6</v>
       </c>
       <c r="K162" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -7898,10 +7927,10 @@
         <v>6</v>
       </c>
       <c r="K163" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -7931,10 +7960,10 @@
         <v>6</v>
       </c>
       <c r="K164" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -7964,10 +7993,10 @@
         <v>6</v>
       </c>
       <c r="K165" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -8000,7 +8029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -8033,7 +8062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I168" t="s">
         <v>574</v>
       </c>
